--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -482,6 +482,72 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4295,6 +4361,488 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
+        <v>800000</v>
+      </c>
+      <c r="C151">
+        <v>494000</v>
+      </c>
+      <c r="D151">
+        <v>400000</v>
+      </c>
+      <c r="E151">
+        <v>261000</v>
+      </c>
+      <c r="F151">
+        <v>139000</v>
+      </c>
+      <c r="G151">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152">
+        <v>900000</v>
+      </c>
+      <c r="C152">
+        <v>1227000</v>
+      </c>
+      <c r="D152">
+        <v>900000</v>
+      </c>
+      <c r="E152">
+        <v>518000</v>
+      </c>
+      <c r="F152">
+        <v>382000</v>
+      </c>
+      <c r="G152">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153">
+        <v>1000000</v>
+      </c>
+      <c r="C153">
+        <v>2156000</v>
+      </c>
+      <c r="D153">
+        <v>1200000</v>
+      </c>
+      <c r="E153">
+        <v>694000</v>
+      </c>
+      <c r="F153">
+        <v>506000</v>
+      </c>
+      <c r="G153">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
+        <v>900000</v>
+      </c>
+      <c r="C154">
+        <v>1807000</v>
+      </c>
+      <c r="D154">
+        <v>1260000</v>
+      </c>
+      <c r="E154">
+        <v>913000</v>
+      </c>
+      <c r="F154">
+        <v>347000</v>
+      </c>
+      <c r="G154">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155">
+        <v>1200000</v>
+      </c>
+      <c r="C155">
+        <v>2055000</v>
+      </c>
+      <c r="D155">
+        <v>1560000</v>
+      </c>
+      <c r="E155">
+        <v>1060000</v>
+      </c>
+      <c r="F155">
+        <v>500000</v>
+      </c>
+      <c r="G155">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
+        <v>900000</v>
+      </c>
+      <c r="C156">
+        <v>2540000</v>
+      </c>
+      <c r="D156">
+        <v>1350000</v>
+      </c>
+      <c r="E156">
+        <v>500000</v>
+      </c>
+      <c r="F156">
+        <v>850000</v>
+      </c>
+      <c r="G156">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157">
+        <v>1200000</v>
+      </c>
+      <c r="C157">
+        <v>2961000</v>
+      </c>
+      <c r="D157">
+        <v>1800000</v>
+      </c>
+      <c r="E157">
+        <v>1280000</v>
+      </c>
+      <c r="F157">
+        <v>520000</v>
+      </c>
+      <c r="G157">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158">
+        <v>1200000</v>
+      </c>
+      <c r="C158">
+        <v>2772000</v>
+      </c>
+      <c r="D158">
+        <v>1800000</v>
+      </c>
+      <c r="E158">
+        <v>753000</v>
+      </c>
+      <c r="F158">
+        <v>1047000</v>
+      </c>
+      <c r="G158">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>1100000</v>
+      </c>
+      <c r="C159">
+        <v>2512000</v>
+      </c>
+      <c r="D159">
+        <v>1650000</v>
+      </c>
+      <c r="E159">
+        <v>833000</v>
+      </c>
+      <c r="F159">
+        <v>817000</v>
+      </c>
+      <c r="G159">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
+        <v>1100000</v>
+      </c>
+      <c r="C160">
+        <v>2578000</v>
+      </c>
+      <c r="D160">
+        <v>1650000</v>
+      </c>
+      <c r="E160">
+        <v>1057000</v>
+      </c>
+      <c r="F160">
+        <v>593000</v>
+      </c>
+      <c r="G160">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161">
+        <v>700000</v>
+      </c>
+      <c r="C161">
+        <v>1936000</v>
+      </c>
+      <c r="D161">
+        <v>1050000</v>
+      </c>
+      <c r="E161">
+        <v>784000</v>
+      </c>
+      <c r="F161">
+        <v>266000</v>
+      </c>
+      <c r="G161">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>1500000</v>
+      </c>
+      <c r="C162">
+        <v>2054000</v>
+      </c>
+      <c r="D162">
+        <v>1500000</v>
+      </c>
+      <c r="E162">
+        <v>1246000</v>
+      </c>
+      <c r="F162">
+        <v>254000</v>
+      </c>
+      <c r="G162">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>1500000</v>
+      </c>
+      <c r="C163">
+        <v>3018000</v>
+      </c>
+      <c r="D163">
+        <v>2250000</v>
+      </c>
+      <c r="E163">
+        <v>1462000</v>
+      </c>
+      <c r="F163">
+        <v>788000</v>
+      </c>
+      <c r="G163">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
+        <v>1500000</v>
+      </c>
+      <c r="C164">
+        <v>1694000</v>
+      </c>
+      <c r="D164">
+        <v>750000</v>
+      </c>
+      <c r="E164">
+        <v>516000</v>
+      </c>
+      <c r="F164">
+        <v>234000</v>
+      </c>
+      <c r="G164">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>1600000</v>
+      </c>
+      <c r="C165">
+        <v>1945000</v>
+      </c>
+      <c r="D165">
+        <v>1600000</v>
+      </c>
+      <c r="E165">
+        <v>1095000</v>
+      </c>
+      <c r="F165">
+        <v>505000</v>
+      </c>
+      <c r="G165">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>1600000</v>
+      </c>
+      <c r="C166">
+        <v>1506000</v>
+      </c>
+      <c r="D166">
+        <v>1506000</v>
+      </c>
+      <c r="E166">
+        <v>1010000</v>
+      </c>
+      <c r="F166">
+        <v>496000</v>
+      </c>
+      <c r="G166">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
+        <v>1600000</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
+        <v>2000000</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>2000000</v>
+      </c>
+      <c r="C169">
+        <v>3222000</v>
+      </c>
+      <c r="D169">
+        <v>3000000</v>
+      </c>
+      <c r="E169">
+        <v>2443000</v>
+      </c>
+      <c r="F169">
+        <v>557000</v>
+      </c>
+      <c r="G169">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
+        <v>2000000</v>
+      </c>
+      <c r="C170">
+        <v>3579000</v>
+      </c>
+      <c r="D170">
+        <v>3000000</v>
+      </c>
+      <c r="E170">
+        <v>1596000</v>
+      </c>
+      <c r="F170">
+        <v>1404000</v>
+      </c>
+      <c r="G170">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>2000000</v>
+      </c>
+      <c r="C171">
+        <v>2719000</v>
+      </c>
+      <c r="D171">
+        <v>2000000</v>
+      </c>
+      <c r="E171">
+        <v>1446000</v>
+      </c>
+      <c r="F171">
+        <v>554000</v>
+      </c>
+      <c r="G171">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>2200000</v>
+      </c>
+      <c r="C172">
+        <v>2821000</v>
+      </c>
+      <c r="D172">
+        <v>2821000</v>
+      </c>
+      <c r="E172">
+        <v>1850000</v>
+      </c>
+      <c r="F172">
+        <v>971000</v>
+      </c>
+      <c r="G172">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4843,6 +4846,29 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>2200000</v>
+      </c>
+      <c r="C173">
+        <v>3279000</v>
+      </c>
+      <c r="D173">
+        <v>3080000</v>
+      </c>
+      <c r="E173">
+        <v>2020000</v>
+      </c>
+      <c r="F173">
+        <v>1060000</v>
+      </c>
+      <c r="G173">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,27 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4869,6 +4890,167 @@
         <v>1.49</v>
       </c>
     </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>1000000</v>
+      </c>
+      <c r="C174">
+        <v>1665000</v>
+      </c>
+      <c r="D174">
+        <v>1500000</v>
+      </c>
+      <c r="E174">
+        <v>900000</v>
+      </c>
+      <c r="F174">
+        <v>600000</v>
+      </c>
+      <c r="G174">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>1200000</v>
+      </c>
+      <c r="C175">
+        <v>2402000</v>
+      </c>
+      <c r="D175">
+        <v>1200000</v>
+      </c>
+      <c r="E175">
+        <v>593000</v>
+      </c>
+      <c r="F175">
+        <v>607000</v>
+      </c>
+      <c r="G175">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>1200000</v>
+      </c>
+      <c r="C176">
+        <v>2190000</v>
+      </c>
+      <c r="D176">
+        <v>1200000</v>
+      </c>
+      <c r="E176">
+        <v>610000</v>
+      </c>
+      <c r="F176">
+        <v>590000</v>
+      </c>
+      <c r="G176">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>500000</v>
+      </c>
+      <c r="C177">
+        <v>1465000</v>
+      </c>
+      <c r="D177">
+        <v>750000</v>
+      </c>
+      <c r="E177">
+        <v>530000</v>
+      </c>
+      <c r="F177">
+        <v>220000</v>
+      </c>
+      <c r="G177">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>600000</v>
+      </c>
+      <c r="C178">
+        <v>965000</v>
+      </c>
+      <c r="D178">
+        <v>900000</v>
+      </c>
+      <c r="E178">
+        <v>745000</v>
+      </c>
+      <c r="F178">
+        <v>155000</v>
+      </c>
+      <c r="G178">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>2200000</v>
+      </c>
+      <c r="C179">
+        <v>2875000</v>
+      </c>
+      <c r="D179">
+        <v>2200000</v>
+      </c>
+      <c r="E179">
+        <v>1445000</v>
+      </c>
+      <c r="F179">
+        <v>755000</v>
+      </c>
+      <c r="G179">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180">
+        <v>2600000</v>
+      </c>
+      <c r="C180">
+        <v>2805000</v>
+      </c>
+      <c r="D180">
+        <v>2600000</v>
+      </c>
+      <c r="E180">
+        <v>1575000</v>
+      </c>
+      <c r="F180">
+        <v>1025000</v>
+      </c>
+      <c r="G180">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5051,6 +5054,29 @@
         <v>1.49</v>
       </c>
     </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181">
+        <v>2600000</v>
+      </c>
+      <c r="C181">
+        <v>3149000</v>
+      </c>
+      <c r="D181">
+        <v>2600000</v>
+      </c>
+      <c r="E181">
+        <v>1471000</v>
+      </c>
+      <c r="F181">
+        <v>1129000</v>
+      </c>
+      <c r="G181">
+        <v>1.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,33 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5077,6 +5104,213 @@
         <v>1.48</v>
       </c>
     </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182">
+        <v>2600000</v>
+      </c>
+      <c r="C182">
+        <v>2703000</v>
+      </c>
+      <c r="D182">
+        <v>2600000</v>
+      </c>
+      <c r="E182">
+        <v>1337000</v>
+      </c>
+      <c r="F182">
+        <v>1263000</v>
+      </c>
+      <c r="G182">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183">
+        <v>2600000</v>
+      </c>
+      <c r="C183">
+        <v>4473000</v>
+      </c>
+      <c r="D183">
+        <v>3900000</v>
+      </c>
+      <c r="E183">
+        <v>2607000</v>
+      </c>
+      <c r="F183">
+        <v>1293000</v>
+      </c>
+      <c r="G183">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184">
+        <v>1000000</v>
+      </c>
+      <c r="C184">
+        <v>2998000</v>
+      </c>
+      <c r="D184">
+        <v>1500000</v>
+      </c>
+      <c r="E184">
+        <v>867000</v>
+      </c>
+      <c r="F184">
+        <v>633000</v>
+      </c>
+      <c r="G184">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>700000</v>
+      </c>
+      <c r="C185">
+        <v>2168000</v>
+      </c>
+      <c r="D185">
+        <v>1050000</v>
+      </c>
+      <c r="E185">
+        <v>277000</v>
+      </c>
+      <c r="F185">
+        <v>773000</v>
+      </c>
+      <c r="G185">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>1000000</v>
+      </c>
+      <c r="C186">
+        <v>2633000</v>
+      </c>
+      <c r="D186">
+        <v>1500000</v>
+      </c>
+      <c r="E186">
+        <v>1025000</v>
+      </c>
+      <c r="F186">
+        <v>475000</v>
+      </c>
+      <c r="G186">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187">
+        <v>1000000</v>
+      </c>
+      <c r="C187">
+        <v>2358000</v>
+      </c>
+      <c r="D187">
+        <v>1500000</v>
+      </c>
+      <c r="E187">
+        <v>937000</v>
+      </c>
+      <c r="F187">
+        <v>563000</v>
+      </c>
+      <c r="G187">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188">
+        <v>1500000</v>
+      </c>
+      <c r="C188">
+        <v>2335000</v>
+      </c>
+      <c r="D188">
+        <v>2250000</v>
+      </c>
+      <c r="E188">
+        <v>1975000</v>
+      </c>
+      <c r="F188">
+        <v>275000</v>
+      </c>
+      <c r="G188">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189">
+        <v>3000000</v>
+      </c>
+      <c r="C189">
+        <v>3433000</v>
+      </c>
+      <c r="D189">
+        <v>3000000</v>
+      </c>
+      <c r="E189">
+        <v>1967000</v>
+      </c>
+      <c r="F189">
+        <v>1033000</v>
+      </c>
+      <c r="G189">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190">
+        <v>4000000</v>
+      </c>
+      <c r="C190">
+        <v>5270000</v>
+      </c>
+      <c r="D190">
+        <v>4000000</v>
+      </c>
+      <c r="E190">
+        <v>3213000</v>
+      </c>
+      <c r="F190">
+        <v>787000</v>
+      </c>
+      <c r="G190">
+        <v>1.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5311,6 +5314,29 @@
         <v>1.47</v>
       </c>
     </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191">
+        <v>4200000</v>
+      </c>
+      <c r="C191">
+        <v>7437000</v>
+      </c>
+      <c r="D191">
+        <v>4200000</v>
+      </c>
+      <c r="E191">
+        <v>2590000</v>
+      </c>
+      <c r="F191">
+        <v>1610000</v>
+      </c>
+      <c r="G191">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -605,6 +605,15 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -962,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5337,6 +5346,75 @@
         <v>1.49</v>
       </c>
     </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192">
+        <v>3500000</v>
+      </c>
+      <c r="C192">
+        <v>5329000</v>
+      </c>
+      <c r="D192">
+        <v>3500000</v>
+      </c>
+      <c r="E192">
+        <v>2311000</v>
+      </c>
+      <c r="F192">
+        <v>1189000</v>
+      </c>
+      <c r="G192">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193">
+        <v>3500000</v>
+      </c>
+      <c r="C193">
+        <v>4853000</v>
+      </c>
+      <c r="D193">
+        <v>3500000</v>
+      </c>
+      <c r="E193">
+        <v>2267000</v>
+      </c>
+      <c r="F193">
+        <v>1233000</v>
+      </c>
+      <c r="G193">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194">
+        <v>1500000</v>
+      </c>
+      <c r="C194">
+        <v>3843000</v>
+      </c>
+      <c r="D194">
+        <v>2250000</v>
+      </c>
+      <c r="E194">
+        <v>1232000</v>
+      </c>
+      <c r="F194">
+        <v>1018000</v>
+      </c>
+      <c r="G194">
+        <v>1.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5415,6 +5418,29 @@
         <v>1.87</v>
       </c>
     </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>1500000</v>
+      </c>
+      <c r="C195">
+        <v>2543000</v>
+      </c>
+      <c r="D195">
+        <v>1500000</v>
+      </c>
+      <c r="E195">
+        <v>527000</v>
+      </c>
+      <c r="F195">
+        <v>973000</v>
+      </c>
+      <c r="G195">
+        <v>2.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Serie</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
   </si>
 </sst>
 </file>
@@ -974,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5441,6 +5453,98 @@
         <v>2.18</v>
       </c>
     </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196">
+        <v>2000000</v>
+      </c>
+      <c r="C196">
+        <v>2607000</v>
+      </c>
+      <c r="D196">
+        <v>2000000</v>
+      </c>
+      <c r="E196">
+        <v>1525000</v>
+      </c>
+      <c r="F196">
+        <v>475000</v>
+      </c>
+      <c r="G196">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197">
+        <v>2000000</v>
+      </c>
+      <c r="C197">
+        <v>3435000</v>
+      </c>
+      <c r="D197">
+        <v>2000000</v>
+      </c>
+      <c r="E197">
+        <v>1680000</v>
+      </c>
+      <c r="F197">
+        <v>320000</v>
+      </c>
+      <c r="G197">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198">
+        <v>3500000</v>
+      </c>
+      <c r="C198">
+        <v>5255000</v>
+      </c>
+      <c r="D198">
+        <v>4550000</v>
+      </c>
+      <c r="E198">
+        <v>3805000</v>
+      </c>
+      <c r="F198">
+        <v>745000</v>
+      </c>
+      <c r="G198">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199">
+        <v>4000000</v>
+      </c>
+      <c r="C199">
+        <v>7028000</v>
+      </c>
+      <c r="D199">
+        <v>6000000</v>
+      </c>
+      <c r="E199">
+        <v>4502000</v>
+      </c>
+      <c r="F199">
+        <v>1498000</v>
+      </c>
+      <c r="G199">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -629,6 +629,36 @@
   </si>
   <si>
     <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5545,6 +5575,236 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200">
+        <v>3400000</v>
+      </c>
+      <c r="C200">
+        <v>5570000</v>
+      </c>
+      <c r="D200">
+        <v>3400000</v>
+      </c>
+      <c r="E200">
+        <v>1490000</v>
+      </c>
+      <c r="F200">
+        <v>1910000</v>
+      </c>
+      <c r="G200">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201">
+        <v>3400000</v>
+      </c>
+      <c r="C201">
+        <v>4420000</v>
+      </c>
+      <c r="D201">
+        <v>3400000</v>
+      </c>
+      <c r="E201">
+        <v>1895000</v>
+      </c>
+      <c r="F201">
+        <v>1505000</v>
+      </c>
+      <c r="G201">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202">
+        <v>3400000</v>
+      </c>
+      <c r="C202">
+        <v>4012000</v>
+      </c>
+      <c r="D202">
+        <v>3400000</v>
+      </c>
+      <c r="E202">
+        <v>1878000</v>
+      </c>
+      <c r="F202">
+        <v>1522000</v>
+      </c>
+      <c r="G202">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203">
+        <v>1500000</v>
+      </c>
+      <c r="C203">
+        <v>3084000</v>
+      </c>
+      <c r="D203">
+        <v>2250000</v>
+      </c>
+      <c r="E203">
+        <v>1291000</v>
+      </c>
+      <c r="F203">
+        <v>959000</v>
+      </c>
+      <c r="G203">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204">
+        <v>1500000</v>
+      </c>
+      <c r="C204">
+        <v>2770000</v>
+      </c>
+      <c r="D204">
+        <v>1500000</v>
+      </c>
+      <c r="E204">
+        <v>610000</v>
+      </c>
+      <c r="F204">
+        <v>890000</v>
+      </c>
+      <c r="G204">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205">
+        <v>1200000</v>
+      </c>
+      <c r="C205">
+        <v>2357000</v>
+      </c>
+      <c r="D205">
+        <v>1800000</v>
+      </c>
+      <c r="E205">
+        <v>1201000</v>
+      </c>
+      <c r="F205">
+        <v>599000</v>
+      </c>
+      <c r="G205">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206">
+        <v>1200000</v>
+      </c>
+      <c r="C206">
+        <v>2220000</v>
+      </c>
+      <c r="D206">
+        <v>1200000</v>
+      </c>
+      <c r="E206">
+        <v>775000</v>
+      </c>
+      <c r="F206">
+        <v>425000</v>
+      </c>
+      <c r="G206">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207">
+        <v>3000000</v>
+      </c>
+      <c r="C207">
+        <v>3038000</v>
+      </c>
+      <c r="D207">
+        <v>3000000</v>
+      </c>
+      <c r="E207">
+        <v>2612000</v>
+      </c>
+      <c r="F207">
+        <v>388000</v>
+      </c>
+      <c r="G207">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208">
+        <v>3600000</v>
+      </c>
+      <c r="C208">
+        <v>3007000</v>
+      </c>
+      <c r="D208">
+        <v>3007000</v>
+      </c>
+      <c r="E208">
+        <v>2395000</v>
+      </c>
+      <c r="F208">
+        <v>612000</v>
+      </c>
+      <c r="G208">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209">
+        <v>2600000</v>
+      </c>
+      <c r="C209">
+        <v>2604000</v>
+      </c>
+      <c r="D209">
+        <v>2080000</v>
+      </c>
+      <c r="E209">
+        <v>751000</v>
+      </c>
+      <c r="F209">
+        <v>1329000</v>
+      </c>
+      <c r="G209">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5805,6 +5811,52 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210">
+        <v>2300000</v>
+      </c>
+      <c r="C210">
+        <v>3739000</v>
+      </c>
+      <c r="D210">
+        <v>2300000</v>
+      </c>
+      <c r="E210">
+        <v>1026000</v>
+      </c>
+      <c r="F210">
+        <v>1274000</v>
+      </c>
+      <c r="G210">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>2300000</v>
+      </c>
+      <c r="C211">
+        <v>3688000</v>
+      </c>
+      <c r="D211">
+        <v>2300000</v>
+      </c>
+      <c r="E211">
+        <v>1112000</v>
+      </c>
+      <c r="F211">
+        <v>1188000</v>
+      </c>
+      <c r="G211">
+        <v>2.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5857,6 +5860,29 @@
         <v>2.73</v>
       </c>
     </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212">
+        <v>1600000</v>
+      </c>
+      <c r="C212">
+        <v>2890000</v>
+      </c>
+      <c r="D212">
+        <v>2400000</v>
+      </c>
+      <c r="E212">
+        <v>1565000</v>
+      </c>
+      <c r="F212">
+        <v>835000</v>
+      </c>
+      <c r="G212">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5883,6 +5886,29 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213">
+        <v>800000</v>
+      </c>
+      <c r="C213">
+        <v>1681000</v>
+      </c>
+      <c r="D213">
+        <v>1200000</v>
+      </c>
+      <c r="E213">
+        <v>664000</v>
+      </c>
+      <c r="F213">
+        <v>536000</v>
+      </c>
+      <c r="G213">
+        <v>2.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5909,6 +5912,29 @@
         <v>2.74</v>
       </c>
     </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214">
+        <v>1100000</v>
+      </c>
+      <c r="C214">
+        <v>1642000</v>
+      </c>
+      <c r="D214">
+        <v>1540000</v>
+      </c>
+      <c r="E214">
+        <v>1033000</v>
+      </c>
+      <c r="F214">
+        <v>507000</v>
+      </c>
+      <c r="G214">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/14 días 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/14 días 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Serie</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>08-11-2021</t>
+  </si>
+  <si>
+    <t>09-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5935,6 +5938,29 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215">
+        <v>700000</v>
+      </c>
+      <c r="C215">
+        <v>1410000</v>
+      </c>
+      <c r="D215">
+        <v>700000</v>
+      </c>
+      <c r="E215">
+        <v>520000</v>
+      </c>
+      <c r="F215">
+        <v>180000</v>
+      </c>
+      <c r="G215">
+        <v>2.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
